--- a/reports/tables/tab3_phase_2_descriptive.xlsx
+++ b/reports/tables/tab3_phase_2_descriptive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnobalam/Documents/Dissertation/irs-pricing-python/results/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnobalam/Documents/Dissertation/irs-pricing-python/reports/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622E58D1-1689-7D4F-9789-F674360635EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBDBB5E-7AD5-BF44-A782-B4982B903340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Currency</t>
   </si>
@@ -41,18 +41,6 @@
     <t>Floating Leg</t>
   </si>
   <si>
-    <t>Cleared Count</t>
-  </si>
-  <si>
-    <t>Cleared</t>
-  </si>
-  <si>
-    <t>Uncleared Count</t>
-  </si>
-  <si>
-    <t>Uncleared</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -87,13 +75,25 @@
   </si>
   <si>
     <t>Percent Cleared</t>
+  </si>
+  <si>
+    <t>Cleared (Count)</t>
+  </si>
+  <si>
+    <t>Cleared (Notional Value)</t>
+  </si>
+  <si>
+    <t>Uncleared (Count)</t>
+  </si>
+  <si>
+    <t>Uncleared (Notional Value)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +119,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -137,29 +143,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -167,24 +176,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -492,7 +502,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G10" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -505,241 +515,227 @@
     <col min="6" max="6" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8">
+        <v>6870</v>
+      </c>
+      <c r="D2" s="1">
+        <v>426753.26</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2954</v>
+      </c>
+      <c r="F2" s="1">
+        <v>118388.276</v>
+      </c>
+      <c r="G2" s="2">
+        <f>D2/(D2+F2)</f>
+        <v>0.7828302043012918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4463</v>
+      </c>
+      <c r="G3" s="2">
+        <f>D3/(D3+F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G4" s="2">
+        <f>D4/(D4+F4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G5" s="2">
+        <f>D5/(D5+F5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6:G10" si="0">D6/(D6+F6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1200</v>
-      </c>
-      <c r="G2" s="3">
-        <f>D2/(D2+F2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1800</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G10" si="0">D3/(D3+F3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6870</v>
-      </c>
-      <c r="D4" s="2">
-        <v>426753.26</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2954</v>
-      </c>
-      <c r="F4" s="2">
-        <v>118388.276</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>0.7828302043012918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
+        <v>62.9</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4463</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2">
-        <v>62.9</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="C10" s="8">
         <v>180</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>14726</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="8">
         <v>169</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>14290.7</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>0.50750085295709024</v>
       </c>
